--- a/doc/K17-8814-Excel-LINEST/V00/var/Cubic-LINEST.xlsx
+++ b/doc/K17-8814-Excel-LINEST/V00/var/Cubic-LINEST.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lsq-J71953071\doc\K17-8814-Excel-LINEST\V00\var\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D26E1-64AD-4EA6-85C4-134B95EF8FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68051F9-6AB8-4F94-87FB-DBA7A33B882D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BC8BD16E-5D58-49DF-BE61-4B3B11B0996B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{BC8BD16E-5D58-49DF-BE61-4B3B11B0996B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bevington 2002" sheetId="1" r:id="rId1"/>
     <sheet name="Sample Cubic" sheetId="6" r:id="rId2"/>
     <sheet name="Sample Cubic (2)" sheetId="7" r:id="rId3"/>
-    <sheet name="Bevington 2002 (2)" sheetId="3" r:id="rId4"/>
-    <sheet name="Bevington 2002 Exp Fit" sheetId="4" r:id="rId5"/>
-    <sheet name="Bevington 1969" sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
+    <sheet name="Linear Fit" sheetId="8" r:id="rId4"/>
+    <sheet name="Bevington 2002 (2)" sheetId="3" r:id="rId5"/>
+    <sheet name="Bevington 2002 Exp Fit" sheetId="4" r:id="rId6"/>
+    <sheet name="Bevington 1969" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="a_0" comment="Constant Term" localSheetId="1">'Sample Cubic'!$B$4</definedName>
     <definedName name="a_0" localSheetId="2">'Sample Cubic (2)'!$B$4</definedName>
-    <definedName name="a_0" comment="Constant Coefficient" localSheetId="6">Sheet1!$F$33</definedName>
+    <definedName name="a_0" comment="Constant Coefficient" localSheetId="7">Sheet1!$F$33</definedName>
     <definedName name="a_1" comment="Linear Coefficient" localSheetId="1">'Sample Cubic'!$B$5</definedName>
     <definedName name="a_1" localSheetId="2">'Sample Cubic (2)'!$B$5</definedName>
-    <definedName name="a_1" comment="Linear Coefficient" localSheetId="6">Sheet1!$E$33</definedName>
+    <definedName name="a_1" comment="Linear Coefficient" localSheetId="7">Sheet1!$E$33</definedName>
     <definedName name="a_2" comment="Quadratic Coefficient" localSheetId="1">'Sample Cubic'!$B$6</definedName>
     <definedName name="a_2" localSheetId="2">'Sample Cubic (2)'!$B$6</definedName>
     <definedName name="a_3" comment="Cubic Coefficient" localSheetId="1">'Sample Cubic'!$B$7</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
   <si>
     <t>i</t>
   </si>
@@ -867,6 +868,9 @@
       <t>5</t>
     </r>
   </si>
+  <si>
+    <t>Linear Fit to Sample Data from a Cubic Polynomial</t>
+  </si>
 </sst>
 </file>
 
@@ -1807,88 +1811,88 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="28"/>
                       <c:pt idx="0">
-                        <c:v>-577.58369791222401</c:v>
+                        <c:v>-273.77508096341387</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-112.66803762435978</c:v>
+                        <c:v>-616.17385286442902</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-327.18147145803277</c:v>
+                        <c:v>-301.47609896840027</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-290.91840059972191</c:v>
+                        <c:v>-197.39083247992582</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>237.43253475609094</c:v>
+                        <c:v>211.72412729226511</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>594.61497590704732</c:v>
+                        <c:v>-50.584022601616255</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>224.53721712324273</c:v>
+                        <c:v>78.916326873351778</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>308.30989725309121</c:v>
+                        <c:v>257.47263932754925</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>297.6282953698817</c:v>
+                        <c:v>-187.37589443997246</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>361.64359243668196</c:v>
+                        <c:v>177.56795059673948</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>-79.908964217451683</c:v>
+                        <c:v>-116.87599307443168</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>15.901359832952224</c:v>
+                        <c:v>243.56343906656986</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>28.044896564636979</c:v>
+                        <c:v>-56.328783893241052</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>-82.980882393779638</c:v>
+                        <c:v>-166.06136160618536</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>-291.23471814185643</c:v>
+                        <c:v>-245.14367190605168</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>-530.30647037298957</c:v>
+                        <c:v>-116.30302564448598</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>38.57412933921745</c:v>
+                        <c:v>-116.41063604745082</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>-558.40498107305916</c:v>
+                        <c:v>-272.38073511691084</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>-139.76740856560875</c:v>
+                        <c:v>-305.55373713108185</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>-494.41978036660561</c:v>
+                        <c:v>-96.035243693447143</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>-213.7689978018484</c:v>
+                        <c:v>-56.505585015096557</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>-370.96935622496278</c:v>
+                        <c:v>-116.0969404108738</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>-43.399111147001832</c:v>
+                        <c:v>110.57970990157168</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>175.80896597189317</c:v>
+                        <c:v>-93.676758987504684</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>874.06429949906715</c:v>
+                        <c:v>500.78453070217597</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>576.52928905607564</c:v>
+                        <c:v>580.18914994842135</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>1213.4935535271927</c:v>
+                        <c:v>1930.5358810632083</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>2056.101649073662</c:v>
+                        <c:v>2427.3595709357805</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3032,88 +3036,88 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="28"/>
                       <c:pt idx="0">
-                        <c:v>-870.7454516198078</c:v>
+                        <c:v>-951.24400341661681</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-644.52153438911284</c:v>
+                        <c:v>-682.76003669777015</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-361.59062140073104</c:v>
+                        <c:v>-152.22106385665901</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5.4114192262939591</c:v>
+                        <c:v>-38.705960262802137</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>247.10449907809115</c:v>
+                        <c:v>359.55540403060792</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>255.07151527577511</c:v>
+                        <c:v>115.28953473051638</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13.473609980817798</c:v>
+                        <c:v>551.2762228074987</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>239.49692885548296</c:v>
+                        <c:v>491.21747773386926</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>707.45409417272401</c:v>
+                        <c:v>109.9802099516566</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>566.05520743079103</c:v>
+                        <c:v>188.49082964395831</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>118.56651625626533</c:v>
+                        <c:v>375.41464159976306</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>49.178310300658907</c:v>
+                        <c:v>182.23994007401689</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>-36.700690335092062</c:v>
+                        <c:v>-52.227349952666316</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>-141.9351476824275</c:v>
+                        <c:v>-30.617663427056094</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>-95.82415128346662</c:v>
+                        <c:v>-208.7372706373144</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>-256.78126232905265</c:v>
+                        <c:v>-270.39981335491962</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>-533.06472068255084</c:v>
+                        <c:v>81.212262556328881</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>-470.75167357850626</c:v>
+                        <c:v>-214.74207616653703</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>-154.2829000411931</c:v>
+                        <c:v>-360.62930241624616</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>-422.80212122971562</c:v>
+                        <c:v>-569.74450814488262</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>-15.749438851450407</c:v>
+                        <c:v>-462.4671839761786</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>-240.77122145078604</c:v>
+                        <c:v>-292.03204186609605</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>178.59472262295984</c:v>
+                        <c:v>-144.58829137660459</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>421.60606187475503</c:v>
+                        <c:v>220.6042867839854</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>322.02107027528677</c:v>
+                        <c:v>534.92891343463884</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>572.69532916034552</c:v>
+                        <c:v>653.87678245919085</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>1906.713983765427</c:v>
+                        <c:v>1925.5861884177971</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>1380.5140698060868</c:v>
+                        <c:v>2194.3569160697907</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7135,8 +7139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26EF62-D286-49E4-AA5A-9CBBCA0C0DB5}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D46:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7237,7 +7241,7 @@
       </c>
       <c r="E12" s="22">
         <f ca="1">_xlfn.NORM.INV(RAND(),C12,D12)</f>
-        <v>-577.58369791222401</v>
+        <v>-273.77508096341387</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7255,7 +7259,7 @@
       </c>
       <c r="E13" s="22">
         <f t="shared" ref="E13:E39" ca="1" si="1">_xlfn.NORM.INV(RAND(),C13,D13)</f>
-        <v>-112.66803762435978</v>
+        <v>-616.17385286442902</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7273,7 +7277,7 @@
       </c>
       <c r="E14" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-327.18147145803277</v>
+        <v>-301.47609896840027</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7290,7 +7294,7 @@
       </c>
       <c r="E15" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-290.91840059972191</v>
+        <v>-197.39083247992582</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7308,7 +7312,7 @@
       </c>
       <c r="E16" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>237.43253475609094</v>
+        <v>211.72412729226511</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -7326,7 +7330,7 @@
       </c>
       <c r="E17" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>594.61497590704732</v>
+        <v>-50.584022601616255</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -7344,7 +7348,7 @@
       </c>
       <c r="E18" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>224.53721712324273</v>
+        <v>78.916326873351778</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -7362,7 +7366,7 @@
       </c>
       <c r="E19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>308.30989725309121</v>
+        <v>257.47263932754925</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -7380,7 +7384,7 @@
       </c>
       <c r="E20" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>297.6282953698817</v>
+        <v>-187.37589443997246</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -7398,7 +7402,7 @@
       </c>
       <c r="E21" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>361.64359243668196</v>
+        <v>177.56795059673948</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -7416,7 +7420,7 @@
       </c>
       <c r="E22" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-79.908964217451683</v>
+        <v>-116.87599307443168</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -7434,7 +7438,7 @@
       </c>
       <c r="E23" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>15.901359832952224</v>
+        <v>243.56343906656986</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -7451,7 +7455,7 @@
       </c>
       <c r="E24" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>28.044896564636979</v>
+        <v>-56.328783893241052</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -7469,7 +7473,7 @@
       </c>
       <c r="E25" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-82.980882393779638</v>
+        <v>-166.06136160618536</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -7487,7 +7491,7 @@
       </c>
       <c r="E26" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-291.23471814185643</v>
+        <v>-245.14367190605168</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -7505,7 +7509,7 @@
       </c>
       <c r="E27" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-530.30647037298957</v>
+        <v>-116.30302564448598</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -7523,7 +7527,7 @@
       </c>
       <c r="E28" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>38.57412933921745</v>
+        <v>-116.41063604745082</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -7541,7 +7545,7 @@
       </c>
       <c r="E29" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-558.40498107305916</v>
+        <v>-272.38073511691084</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -7559,7 +7563,7 @@
       </c>
       <c r="E30" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-139.76740856560875</v>
+        <v>-305.55373713108185</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -7577,7 +7581,7 @@
       </c>
       <c r="E31" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-494.41978036660561</v>
+        <v>-96.035243693447143</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -7595,7 +7599,7 @@
       </c>
       <c r="E32" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-213.7689978018484</v>
+        <v>-56.505585015096557</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
@@ -7613,7 +7617,7 @@
       </c>
       <c r="E33" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-370.96935622496278</v>
+        <v>-116.0969404108738</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
@@ -7630,7 +7634,7 @@
       </c>
       <c r="E34" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.399111147001832</v>
+        <v>110.57970990157168</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
@@ -7648,7 +7652,7 @@
       </c>
       <c r="E35" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>175.80896597189317</v>
+        <v>-93.676758987504684</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -7666,7 +7670,7 @@
       </c>
       <c r="E36" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>874.06429949906715</v>
+        <v>500.78453070217597</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -7684,7 +7688,7 @@
       </c>
       <c r="E37" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>576.52928905607564</v>
+        <v>580.18914994842135</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
@@ -7702,7 +7706,7 @@
       </c>
       <c r="E38" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>1213.4935535271927</v>
+        <v>1930.5358810632083</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
@@ -7720,7 +7724,7 @@
       </c>
       <c r="E39" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>2056.101649073662</v>
+        <v>2427.3595709357805</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -8633,8 +8637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285EA88-E93F-4352-BE99-6725DA3B1285}">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46:S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8736,7 +8740,7 @@
       </c>
       <c r="E12" s="22">
         <f ca="1">_xlfn.NORM.INV(RAND(),C12,D12)</f>
-        <v>-870.7454516198078</v>
+        <v>-951.24400341661681</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8754,7 +8758,7 @@
       </c>
       <c r="E13" s="22">
         <f t="shared" ref="E13:E39" ca="1" si="1">_xlfn.NORM.INV(RAND(),C13,D13)</f>
-        <v>-644.52153438911284</v>
+        <v>-682.76003669777015</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8772,7 +8776,7 @@
       </c>
       <c r="E14" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-361.59062140073104</v>
+        <v>-152.22106385665901</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8789,7 +8793,7 @@
       </c>
       <c r="E15" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4114192262939591</v>
+        <v>-38.705960262802137</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8807,7 +8811,7 @@
       </c>
       <c r="E16" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>247.10449907809115</v>
+        <v>359.55540403060792</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -8825,7 +8829,7 @@
       </c>
       <c r="E17" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>255.07151527577511</v>
+        <v>115.28953473051638</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -8843,7 +8847,7 @@
       </c>
       <c r="E18" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>13.473609980817798</v>
+        <v>551.2762228074987</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -8861,7 +8865,7 @@
       </c>
       <c r="E19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>239.49692885548296</v>
+        <v>491.21747773386926</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -8879,7 +8883,7 @@
       </c>
       <c r="E20" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>707.45409417272401</v>
+        <v>109.9802099516566</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -8897,7 +8901,7 @@
       </c>
       <c r="E21" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>566.05520743079103</v>
+        <v>188.49082964395831</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -8915,7 +8919,7 @@
       </c>
       <c r="E22" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>118.56651625626533</v>
+        <v>375.41464159976306</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -8933,7 +8937,7 @@
       </c>
       <c r="E23" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>49.178310300658907</v>
+        <v>182.23994007401689</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -8950,7 +8954,7 @@
       </c>
       <c r="E24" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.700690335092062</v>
+        <v>-52.227349952666316</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -8968,7 +8972,7 @@
       </c>
       <c r="E25" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-141.9351476824275</v>
+        <v>-30.617663427056094</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -8986,7 +8990,7 @@
       </c>
       <c r="E26" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-95.82415128346662</v>
+        <v>-208.7372706373144</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -9004,7 +9008,7 @@
       </c>
       <c r="E27" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-256.78126232905265</v>
+        <v>-270.39981335491962</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -9022,7 +9026,7 @@
       </c>
       <c r="E28" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-533.06472068255084</v>
+        <v>81.212262556328881</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -9040,7 +9044,7 @@
       </c>
       <c r="E29" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-470.75167357850626</v>
+        <v>-214.74207616653703</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -9058,7 +9062,7 @@
       </c>
       <c r="E30" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-154.2829000411931</v>
+        <v>-360.62930241624616</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -9076,7 +9080,7 @@
       </c>
       <c r="E31" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-422.80212122971562</v>
+        <v>-569.74450814488262</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -9094,7 +9098,7 @@
       </c>
       <c r="E32" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.749438851450407</v>
+        <v>-462.4671839761786</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
@@ -9112,7 +9116,7 @@
       </c>
       <c r="E33" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>-240.77122145078604</v>
+        <v>-292.03204186609605</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
@@ -9129,7 +9133,7 @@
       </c>
       <c r="E34" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>178.59472262295984</v>
+        <v>-144.58829137660459</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
@@ -9147,7 +9151,7 @@
       </c>
       <c r="E35" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>421.60606187475503</v>
+        <v>220.6042867839854</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
@@ -9165,7 +9169,7 @@
       </c>
       <c r="E36" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>322.02107027528677</v>
+        <v>534.92891343463884</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
@@ -9183,7 +9187,7 @@
       </c>
       <c r="E37" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>572.69532916034552</v>
+        <v>653.87678245919085</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
@@ -9201,7 +9205,7 @@
       </c>
       <c r="E38" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>1906.713983765427</v>
+        <v>1925.5861884177971</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -9219,7 +9223,7 @@
       </c>
       <c r="E39" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>1380.5140698060868</v>
+        <v>2194.3569160697907</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
@@ -10359,6 +10363,124 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123CF453-235C-4E2B-967B-67CF66F6213E}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25">
+        <f t="array" ref="C5:D9">LINEST('Sample Cubic (2)'!D46:D73,'Sample Cubic (2)'!F46:F73,TRUE(),TRUE())</f>
+        <v>23.8641516697448</v>
+      </c>
+      <c r="D5" s="25">
+        <v>58.257393819960242</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="25">
+        <v>9.6550054741276412</v>
+      </c>
+      <c r="D6" s="25">
+        <v>79.32396436523355</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.19026415237309457</v>
+      </c>
+      <c r="D7" s="22">
+        <v>412.68795935770794</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="22">
+        <v>6.1092367050294936</v>
+      </c>
+      <c r="D8" s="22">
+        <v>26</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1040472.3616925981</v>
+      </c>
+      <c r="D9" s="22">
+        <v>4428095.146769559</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAC724B-2472-4820-8FA8-2D794FCFB5FA}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -10590,7 +10712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929F0AB3-9E00-476D-881E-553A8D829A98}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -10867,7 +10989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E987EB-4477-419B-8018-59404675F59E}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -11000,7 +11122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E859F02E-3103-4323-9563-FE0E70D4CD5A}">
   <dimension ref="A1:H144"/>
   <sheetViews>
